--- a/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
+++ b/attachments/IDE/IntelliJ IDEA 快捷键.xlsx
@@ -1211,57 +1211,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1381,7 +1331,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1662,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -3158,13 +3108,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A89:A1048576 A1:A51 A55:A87">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A54">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
